--- a/supplies.xlsx
+++ b/supplies.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>link</t>
   </si>
@@ -49,12 +49,33 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>desiccant</t>
+  </si>
+  <si>
+    <t>Silica Gel Desiccant Pack</t>
+  </si>
+  <si>
+    <t>KMC Perfect Size</t>
+  </si>
+  <si>
+    <t>playmat</t>
+  </si>
+  <si>
+    <t>playmat tube</t>
+  </si>
+  <si>
+    <t>Monster Protectors Prism-shaped</t>
+  </si>
+  <si>
+    <t>Ultra Pro 13.5"x24" Black</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -399,15 +420,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
@@ -472,13 +493,76 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <f>24.9/1000</f>
+        <v>2.4899999999999999E-2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2">
+        <f>6.99/20</f>
+        <v>0.34950000000000003</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10.71</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2">
+        <f>8.51/1</f>
+        <v>8.51</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
     <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D5" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId8"/>
 </worksheet>
 </file>